--- a/PC_Value_Tracker/output/quarterly/Quarterly_Report_2025-Q4.xlsx
+++ b/PC_Value_Tracker/output/quarterly/Quarterly_Report_2025-Q4.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-24 17:36</t>
+          <t>2026-01-24 19:42</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -544,378 +544,390 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Day-to-Day</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8 (33.3%)</t>
+          <t>26 (47.3%)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Unit Support</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4 (16.7%)</t>
+          <t>23 (41.8%)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Alarm Rationalization</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4 (16.7%)</t>
+          <t>5 (9.1%)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>L1 Integrity, Legacy Modernization</t>
+          <t>Legacy Modernization</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1 (4.2%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Legacy Modernization</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1 (4.2%)</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Diagnostic</t>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>BY SYSTEM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1 (4.2%)</t>
+          <t>Count</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Alarm Rationalization, Unit Support</t>
+          <t>Alarm</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1 (4.2%)</t>
+          <t>19 (34.5%)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>L1 Integrity, Alarm Rationalization, Unit Support</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1 (4.2%)</t>
+          <t>13 (23.6%)</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>L1 Integrity, Alarm Rationalization, Legacy Modernization</t>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>DCS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1 (4.2%)</t>
+          <t>10 (18.2%)</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>L1 Integrity</t>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>SIS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1 (4.2%)</t>
+          <t>7 (12.7%)</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>L1 Integrity, Alarm Rationalization</t>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>HMI</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1 (4.2%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>PLC</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2 (3.6%)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>BY SYSTEM</t>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Network</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>1 (1.8%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>BY COMPLEXITY</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>DCS</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>7 (29.2%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Alarm</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>7 (29.2%)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Quick</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5 (20.8%)</t>
+          <t>8 (14.5%)</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>SIS</t>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Low</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3 (12.5%)</t>
+          <t>30 (54.5%)</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>PLC</t>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2 (8.3%)</t>
+          <t>9 (16.4%)</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3 (5.5%)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>BY COMPLEXITY</t>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Major</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Count</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>High</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1 (4.2%)</t>
+          <t>4 (7.3%)</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>15 (62.5%)</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Moderate</t>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>BY BUSINESS IMPACT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2 (8.3%)</t>
+          <t>Count</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2 (8.3%)</t>
+          <t>9 (16.4%)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1 (4.2%)</t>
+          <t>15 (27.3%)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3 (12.5%)</t>
+          <t>16 (29.1%)</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>11 (20.0%)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>BY BUSINESS IMPACT</t>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Low</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>4 (7.3%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>BY RESOLUTION</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>4 (16.7%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>13 (54.2%)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Compliance</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1 (4.2%)</t>
-        </is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Efficiency</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2 (8.3%)</t>
-        </is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>4 (16.7%)</t>
-        </is>
+          <t>Escalated</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Workaround</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Handed Off</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -988,14 +1000,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Unit Support</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1011,7 +1023,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1034,14 +1046,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Day-to-Day</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1061,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,299 +1129,342 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alarm Rationalization</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Alarm Mgmt, Integrity, Alarm: ACM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alarm Rationalization, Unit Support</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Experion/TPS, SIS, HMI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Day-to-Day</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Experion/TPS, Historian, Siemens PLC</t>
+          <t>Turbine, DCS, Other</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Legacy Modernization</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ACM/SCADA</t>
+          <t>Experion/TPS</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L1 Integrity</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Experion/TPS</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>L1 Integrity, Alarm Rationalization</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SIS/Triconex</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L1 Integrity, Alarm Rationalization, Legacy Modernization</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SIS/Triconex</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> === APPLICATIONS (26 issues) ===</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L1 Integrity, Alarm Rationalization, Unit Support</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Complexity</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>Impact</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L1 Integrity, Legacy Modernization</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Experion/TPS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>FW: LARINT01 - Cannot create scheduled task: Documented export cadences (EXP/TPS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Legacy Modernization</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DCS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Cleaned ghost references on ESVT3 for Butamer tags</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Unit Support</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3</v>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Deployed patched SyncDriver DLL for Dynamo fix</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SIS/Triconex, GE/Woodward/Bently, PLC (Rockwell)</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Workaround for ACM PT DESC update via Station F12</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Clarified alarm governance L4/L3 for APO/ACM</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <f>== ALARM RATIONALIZATION (4 issues) ===</f>
-        <v/>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Integrity</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Created scheduled task to move EPKS files on LARINT01</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Alarm: ACM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>Flagged ACM tag description mismatches, noted F12 forcing update</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Impact</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Integrity</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RE: APO 3.0 Installation: Raised L3/L4 edit constraints and CAR/PAR impacts; pro</t>
+          <t>Requested SEL‑710 relay config files for Integrity ingestion</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1419,51 +1474,51 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Alarm: ACM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RE: Console / Dynamo: Explained suppression exposure vs. NTE reporting; reviewed</t>
+          <t>Enabled ETD Tag Sync, issued Add/Delete lists, noted need for permanent deletion</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Alarm: ACM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RE: ACM Secondary Parameter Update: Ran secondary parameter update to push QB de</t>
+          <t>Explained SCADA Reconfiguration defect causing Alarm Help loss, UTT fix availabl</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1473,14 +1528,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1490,12 +1545,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RE: ALERT: ACM DB Replication Heartbeat not implemented or cannot be detected: C</t>
+          <t>RE: APO 3.0 Installation: Raised L3/L4 edit constraints and CAR/PAR impacts; pro</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1505,185 +1560,267 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Alarm Mgmt</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>RE: Console / Dynamo: Explained suppression exposure vs. NTE reporting; reviewed</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24">
-        <f>== ALARM RATIONALIZATION, UNIT SUPPORT (1 issues) ===</f>
-        <v/>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Alarm: DynAMo</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Clarified INHIBIT vs DISABLE behavior and recommended proper MOC</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Alarm: APO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>Recommended APO 3.0 template strategy and cautioned on alternative architecture</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Impact</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Alarm: ACM</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Diagnosed unexplained In Progress state for tag 88VA327G linked to Reconfigurati</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Alarm Mgmt</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>SPW Dynamo Activities: Investigated bulk UnSuppress actions and audit behavior a</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-    </row>
     <row r="28">
-      <c r="A28">
-        <f>== DAY-TO-DAY (8 issues) ===</f>
-        <v/>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Experion/TPS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>RE: LCN3 (ALKY) DCS Backup and Integrity Update: Coordinated D3K EC schedules an</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Integrity</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>Challenged reservation migration hours, documented SSR defects and training need</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Impact</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Historian</t>
+          <t>Alarm: DynAMo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RE: Marathon | St Paul | Pre-Onsite Visit: Clarified PI vs. PHD architecture and</t>
+          <t>Supported mitigation of LCN4 chattering alarms with suppression guidance</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Quick</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Siemens PLC</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>SIS/Triconex</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>RE: Integrity TS1131 cannot view XPS: Pursued PDF-based workaround and asked for</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>High</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Safety</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UPS/COM Alarm</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>Alarm Mgmt</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>RE: ACM Secondary Parameter Update: Ran secondary parameter update to push QB de</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1695,40 +1832,44 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>APO/HAM</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>Alarm Mgmt</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>RE: ALERT: ACM DB Replication Heartbeat not implemented or cannot be detected: C</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>High</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Safety</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Experion/TPS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RE: ETD_UTIL: Provided Tag Sync add/delete lists and reasoning for In-Progress v</t>
+          <t>RE: UDC Agents: Tracked redeploys across ESV/EVT fleet; highlighted remaining pr</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1738,61 +1879,61 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>SIS/Triconex</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RE: Significant issue with alarm discrepancies occurring between the servers and</t>
+          <t>RE: Trident DI Issues - LOV: Pointed to CyberIntegrity inventory capability; not</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Production</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Integrity (ALI)</t>
+          <t>Integrity</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RE: Zip files transferred correctly as well: Verified transfer job execution fro</t>
+          <t>Completed manual migration of &gt;1000 reservations to LARINT01, listed carve-outs</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -1804,22 +1945,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>Alarm: DynAMo</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RE: DAS 91DAS005: Chased missing SUPP events on DAS triggers; captured re-init a</t>
+          <t>Troubleshot missing DAS SUPP events since Oct 4 and documented workaround</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -1831,9 +1972,10 @@
       <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39">
-        <f>== DIAGNOSTIC (1 issues) ===</f>
-        <v/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> === DAY-TO-DAY (23 issues) ===</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
@@ -1870,84 +2012,125 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ACM/SCADA</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>Historian</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>RE: Marathon | St Paul | Pre-Onsite Visit: Clarified PI vs. PHD architecture and</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SIS/Triconex</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>RE: HCU TMR Alarm: Referenced prior EDM training for pulling system faults; reco</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Safety</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-    </row>
     <row r="43">
-      <c r="A43">
-        <f>== L1 INTEGRITY (1 issues) ===</f>
-        <v/>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SIS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Guided use of EDM for fault logs and training</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>HMI</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>Identified need for Vartech HMI driver CD-ROM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>Quick</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Impact</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>GE/Woodward/Bently</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>RE: UDC Agents: Tracked redeploys across ESV/EVT fleet; highlighted remaining pr</t>
+          <t>WCC 92 Power Distribution Card Failure: Initiated follow-up on power distributio</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1957,68 +2140,105 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Confirmed KepServerEX licenses for Modbus Master</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47">
-        <f>== L1 INTEGRITY, ALARM RATIONALIZATION (1 issues) ===</f>
-        <v/>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Requested failover of ESVT3 after collection stopped</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>SIS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>Advised on simulating Safety Manager comms</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>Quick</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Impact</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SIS/Triconex</t>
+          <t>HMI</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RE: Trident DI Issues - LOV: Pointed to CyberIntegrity inventory capability; not</t>
+          <t>Resolved by adjusting dewpoint setpoints on HMIs</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2033,195 +2253,306 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Siemens PLC</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>HMI communication troubleshooting</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51">
-        <f>== L1 INTEGRITY, ALARM RATIONALIZATION, LEGACY MODERNIZATION (1 issues) ===</f>
-        <v/>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Turbine: GE Mark VIe</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Coordinated with Cyber/OT to assess GE Remote Diagnostic service option and conf</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>UPS/COM Alarm</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>P1 troubleshooting for UPS COM alarm</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Impact</t>
+          <t>Safety</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SIS/Triconex</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>RE: Integrity TS1131 cannot view XPS: Pursued PDF-based workaround and asked for</t>
+          <t>Reviewed Windows server build and config for pgwgen004002 to close incident</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>APO/HAM</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Node rename procedure missing; SR needed</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>HMI: HMIWeb</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Explained Flex vs server alarm discrepancies under investigation</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Safety</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <f>== L1 INTEGRITY, ALARM RATIONALIZATION, UNIT SUPPORT (1 issues) ===</f>
-        <v/>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>PLC (Rockwell)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>FW: FCC System Alarm 11SPLC30AO: Analyzed polling performance vs. register gaps;</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Impact</t>
+          <t>Safety</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>Alarm Mgmt</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>RE: ETD_UTIL: Provided Tag Sync add/delete lists and reasoning for In-Progress v</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>Experion/TPS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>RE: LCN3 (ALKY) DCS Backup and Integrity Update: Coordinated D3K EC schedules an</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Efficiency</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>RE: Significant issue with alarm discrepancies occurring between the servers and</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59">
-        <f>== L1 INTEGRITY, LEGACY MODERNIZATION (1 issues) ===</f>
-        <v/>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DCS: ControlEdge</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Provided guidance for ControlEdge PLC install media sourcing</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>SIS: Triconex</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>Clarified Tristation access model via L2.5 jump box for compliance</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Impact</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2231,208 +2562,246 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>FW: LARINT01 - Cannot create scheduled task: Documented export cadences (EXP/TPS</t>
+          <t>RE: LCN4 17XA861 and 84UA822 chattering alarms: Clarified INHIBIT vs DISABLE par</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Safety</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Integrity (ALI)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>RE: Zip files transferred correctly as well: Verified transfer job execution fro</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63">
-        <f>== LEGACY MODERNIZATION (1 issues) ===</f>
-        <v/>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Experion/TPS</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RE: DAS 91DAS005: Chased missing SUPP events on DAS triggers; captured re-init a</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Summary</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Experion/TPS</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>FW: Re: DSPPrime on TDC consoles: Shared dspprime/pntbld procedure to purge stal</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> === DIAGNOSTIC (5 issues) ===</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Complexity</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67">
-        <f>== UNIT SUPPORT (4 issues) ===</f>
-        <v/>
-      </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Turbine</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Investigated DWATT TOO LOW and suggested GE ticket</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>DCS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>Assessed loss of steam extraction control on STG#2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Impact</t>
+          <t>Production</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SIS/Triconex</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>RE: HCU TMR Alarm: Referenced prior EDM training for pulling system faults; reco</t>
+          <t>Coordinated restore path for corrupted server pgwgen004002; evaluated backup opt</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GE/Woodward/Bently</t>
+          <t>SIS: Triconex</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>WCC 92 Power Distribution Card Failure: Initiated follow-up on power distributio</t>
+          <t>Investigated FCC alarm 11SPLC30AO, checked scan rate and SCADA tag grouping</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Production</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PLC (Rockwell)</t>
+          <t>ACM/SCADA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>FW: FCC System Alarm 11SPLC30AO: Analyzed polling performance vs. register gaps;</t>
+          <t>DB corruption and SR tracking</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2442,38 +2811,83 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Experion/TPS</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>RE: LCN4 17XA861 and 84UA822 chattering alarms: Clarified INHIBIT vs DISABLE par</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> === LEGACY MODERNIZATION (1 issues) ===</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Complexity</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Experion/TPS</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>FW: Re: DSPPrime on TDC consoles: Shared dspprime/pntbld procedure to purge stal</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2486,7 +2900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2557,7 +2971,11 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Production</t>
@@ -2582,7 +3000,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Unit Support</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2590,7 +3008,11 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Safety</t>
@@ -2600,84 +3022,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>SIS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FW: LARINT01 - Cannot create scheduled task: Documented export cadences (EXP/TPS) and reiterated scheduled task/batch needs for INT01.</t>
+          <t>Guided use of EDM for fault logs and training</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>L1 Integrity, Legacy Modernization</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Safety</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GE/Woodward/Bently</t>
+          <t>Turbine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WCC 92 Power Distribution Card Failure: Initiated follow-up on power distribution card incident; noted spare strategy considerations.</t>
+          <t>Investigated DWATT TOO LOW and suggested GE ticket</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Unit Support</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Escalated</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Production</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Siemens PLC</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>DCS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Assessed loss of steam extraction control on STG#2</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Day-to-Day</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2685,7 +3119,11 @@
           <t>Moderate</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Handed Off</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>Production</t>
@@ -2695,44 +3133,56 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UPS/COM Alarm</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>Experion/TPS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FW: LARINT01 - Cannot create scheduled task: Documented export cadences (EXP/TPS) and reiterated scheduled task/batch needs for INT01.</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Day-to-Day</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>APO/HAM</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>HMI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Identified need for Vartech HMI driver CD-ROM</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Day-to-Day</t>
@@ -2743,7 +3193,11 @@
           <t>Quick</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>Efficiency</t>
@@ -2753,22 +3207,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>GE/Woodward/Bently</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FW: Re: DSPPrime on TDC consoles: Shared dspprime/pntbld procedure to purge stale TDC points after cutover.</t>
+          <t>WCC 92 Power Distribution Card Failure: Initiated follow-up on power distribution card incident; noted spare strategy considerations.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Legacy Modernization</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2776,32 +3230,36 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PLC (Rockwell)</t>
+          <t>DCS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FW: FCC System Alarm 11SPLC30AO: Analyzed polling performance vs. register gaps; requested change chronology around 12/3.</t>
+          <t>Cleaned ghost references on ESVT3 for Butamer tags</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Unit Support</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2809,32 +3267,36 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Alarm</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RE: APO 3.0 Installation: Raised L3/L4 edit constraints and CAR/PAR impacts; proposed template app/db servers and node rename procedure.</t>
+          <t>Deployed patched SyncDriver DLL for Dynamo fix</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Alarm Rationalization</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2842,32 +3304,36 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Alarm</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RE: Console / Dynamo: Explained suppression exposure vs. NTE reporting; reviewed specific NTE/level instruments.</t>
+          <t>Workaround for ACM PT DESC update via Station F12</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Alarm Rationalization</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2875,27 +3341,31 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Workaround</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RE: ETD_UTIL: Provided Tag Sync add/delete lists and reasoning for In-Progress versions created by scheduled jobs.</t>
+          <t>Confirmed KepServerEX licenses for Modbus Master</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2905,97 +3375,113 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>Alarm</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RE: Significant issue with alarm discrepancies occurring between the servers and the consoles: Questioned BRM station role; supported EST rebuild plan and MOC path.</t>
+          <t>Clarified alarm governance L4/L3 for APO/ACM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Day-to-Day</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ACM/SCADA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Requested failover of ESVT3 after collection stopped</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Integrity</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SPW Dynamo Activities: Investigated bulk UnSuppress actions and audit behavior across TPS/Experion.</t>
+          <t>Created scheduled task to move EPKS files on LARINT01</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Alarm Rationalization, Unit Support</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3003,40 +3489,48 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>SIS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RE: LCN3 (ALKY) DCS Backup and Integrity Update: Coordinated D3K EC schedules and executed backups for Carson LCNs; requested enabling ECs on ENG stations.</t>
+          <t>Advised on simulating Safety Manager comms</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>L1 Integrity, Alarm Rationalization, Unit Support</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>Efficiency</t>
@@ -3046,149 +3540,165 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>HMI</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RE: LCN4 17XA861 and 84UA822 chattering alarms: Clarified INHIBIT vs DISABLE parity for suppression reporting; tied to journaling load relief.</t>
+          <t>Resolved by adjusting dewpoint setpoints on HMIs</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Unit Support</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Production</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SIS/Triconex</t>
+          <t>Siemens PLC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RE: Integrity TS1131 cannot view XPS: Pursued PDF-based workaround and asked for model changes (Aha!) to move away from XPS.</t>
+          <t>HMI communication troubleshooting</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>L1 Integrity, Alarm Rationalization, Legacy Modernization</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Escalated</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Production</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RE: ACM Secondary Parameter Update: Ran secondary parameter update to push QB description/alarm edits; reported per-tag outcomes.</t>
+          <t>Coordinated restore path for corrupted server pgwgen004002; evaluated backup options</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Alarm Rationalization</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Turbine: GE Mark VIe</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RE: ALERT: ACM DB Replication Heartbeat not implemented or cannot be detected: Confirmed the replication/heartbeat condition self-recovered the following day.</t>
+          <t>Coordinated with Cyber/OT to assess GE Remote Diagnostic service option and confirm acceptability of lockbox approach</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Alarm Rationalization</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Integrity (ALI)</t>
+          <t>UPS/COM Alarm</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RE: Zip files transferred correctly as well: Verified transfer job execution from doublehop to INT01; set expectation on 8+ hour population.</t>
+          <t>P1 troubleshooting for UPS COM alarm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3198,35 +3708,39 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Safety</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>Alarm: ACM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RE: UDC Agents: Tracked redeploys across ESV/EVT fleet; highlighted remaining problematic nodes for follow-up.</t>
+          <t>Flagged ACM tag description mismatches, noted F12 forcing update</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>L1 Integrity</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3234,27 +3748,31 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RE: DAS 91DAS005: Chased missing SUPP events on DAS triggers; captured re-init actions; warned about server-wide alarm toggling.</t>
+          <t>Reviewed Windows server build and config for pgwgen004002 to close incident</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3267,43 +3785,1198 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>APO/HAM</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Node rename procedure missing; SR needed</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Day-to-Day</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Escalated</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HMI: HMIWeb</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Explained Flex vs server alarm discrepancies under investigation</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Day-to-Day</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Integrity</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Requested SEL‑710 relay config files for Integrity ingestion</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Experion/TPS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>FW: Re: DSPPrime on TDC consoles: Shared dspprime/pntbld procedure to purge stale TDC points after cutover.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Legacy Modernization</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SIS: Triconex</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Investigated FCC alarm 11SPLC30AO, checked scan rate and SCADA tag grouping</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Alarm: ACM</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Enabled ETD Tag Sync, issued Add/Delete lists, noted need for permanent deletions</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Alarm: ACM</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Explained SCADA Reconfiguration defect causing Alarm Help loss, UTT fix available</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Escalated</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PLC (Rockwell)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>FW: FCC System Alarm 11SPLC30AO: Analyzed polling performance vs. register gaps; requested change chronology around 12/3.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Day-to-Day</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Alarm Mgmt</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>RE: APO 3.0 Installation: Raised L3/L4 edit constraints and CAR/PAR impacts; proposed template app/db servers and node rename procedure.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Alarm Mgmt</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>RE: Console / Dynamo: Explained suppression exposure vs. NTE reporting; reviewed specific NTE/level instruments.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Alarm Mgmt</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>RE: ETD_UTIL: Provided Tag Sync add/delete lists and reasoning for In-Progress versions created by scheduled jobs.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Day-to-Day</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Experion/TPS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>RE: Significant issue with alarm discrepancies occurring between the servers and the consoles: Questioned BRM station role; supported EST rebuild plan and MOC path.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Day-to-Day</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Alarm: DynAMo</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Clarified INHIBIT vs DISABLE behavior and recommended proper MOC</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Workaround</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Alarm: APO</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Recommended APO 3.0 template strategy and cautioned on alternative architecture</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Alarm: ACM</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Diagnosed unexplained In Progress state for tag 88VA327G linked to Reconfiguration</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ACM/SCADA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DB corruption and SR tracking</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Escalated</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Alarm Mgmt</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SPW Dynamo Activities: Investigated bulk UnSuppress actions and audit behavior across TPS/Experion.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DCS: ControlEdge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Provided guidance for ControlEdge PLC install media sourcing</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Day-to-Day</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SIS: Triconex</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Clarified Tristation access model via L2.5 jump box for compliance</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Day-to-Day</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Experion/TPS</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>RE: LCN3 (ALKY) DCS Backup and Integrity Update: Coordinated D3K EC schedules and executed backups for Carson LCNs; requested enabling ECs on ENG stations.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Integrity</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Challenged reservation migration hours, documented SSR defects and training needs</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Escalated</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Experion/TPS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>RE: LCN4 17XA861 and 84UA822 chattering alarms: Clarified INHIBIT vs DISABLE parity for suppression reporting; tied to journaling load relief.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Day-to-Day</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Alarm: DynAMo</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Supported mitigation of LCN4 chattering alarms with suppression guidance</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Workaround</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SIS/Triconex</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>RE: Integrity TS1131 cannot view XPS: Pursued PDF-based workaround and asked for model changes (Aha!) to move away from XPS.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Workaround</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Alarm Mgmt</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>RE: ACM Secondary Parameter Update: Ran secondary parameter update to push QB description/alarm edits; reported per-tag outcomes.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Alarm Mgmt</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>RE: ALERT: ACM DB Replication Heartbeat not implemented or cannot be detected: Confirmed the replication/heartbeat condition self-recovered the following day.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Integrity (ALI)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>RE: Zip files transferred correctly as well: Verified transfer job execution from doublehop to INT01; set expectation on 8+ hour population.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Day-to-Day</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Experion/TPS</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>RE: UDC Agents: Tracked redeploys across ESV/EVT fleet; highlighted remaining problematic nodes for follow-up.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>2025-12-31</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Experion/TPS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>RE: DAS 91DAS005: Chased missing SUPP events on DAS triggers; captured re-init actions; warned about server-wide alarm toggling.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Day-to-Day</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>SIS/Triconex</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>RE: Trident DI Issues - LOV: Pointed to CyberIntegrity inventory capability; noted current limitations in TRX component breakdown.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>L1 Integrity, Alarm Rationalization</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>Production</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Integrity</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Completed manual migration of &gt;1000 reservations to LARINT01, listed carve-outs</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Alarm: DynAMo</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Troubleshot missing DAS SUPP events since Oct 4 and documented workaround</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Workaround</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Compliance</t>
         </is>
       </c>
     </row>

--- a/PC_Value_Tracker/output/quarterly/Quarterly_Report_2025-Q4.xlsx
+++ b/PC_Value_Tracker/output/quarterly/Quarterly_Report_2025-Q4.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-24 19:42</t>
+          <t>2026-01-25 08:11</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>BY MONTH</t>
         </is>
@@ -549,7 +549,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>26 (47.3%)</t>
+          <t>31 (56.4%)</t>
         </is>
       </c>
     </row>
@@ -568,325 +568,323 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Legacy Modernization</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5 (9.1%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Legacy Modernization</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1 (1.8%)</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>BY SYSTEM</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>BY SYSTEM</t>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Alarm</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Count</t>
+          <t>19 (34.5%)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Alarm</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19 (34.5%)</t>
+          <t>13 (23.6%)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>DCS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13 (23.6%)</t>
+          <t>10 (18.2%)</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>DCS</t>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SIS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10 (18.2%)</t>
+          <t>7 (12.7%)</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>SIS</t>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HMI</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7 (12.7%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>HMI</t>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PLC</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3 (5.5%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>PLC</t>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Network</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Network</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1 (1.8%)</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>BY COMPLEXITY</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>BY COMPLEXITY</t>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Quick</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Count</t>
+          <t>8 (14.5%)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8 (14.5%)</t>
+          <t>30 (54.5%)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>30 (54.5%)</t>
+          <t>9 (16.4%)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9 (16.4%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3 (5.5%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>4 (7.3%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>BY BUSINESS IMPACT</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>1 (1.8%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>4 (7.3%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>BY BUSINESS IMPACT</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Count</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9 (16.4%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>15 (27.3%)</t>
+          <t>21 (38.2%)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Efficiency</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16 (29.1%)</t>
+          <t>5 (9.1%)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11 (20.0%)</t>
+          <t>26 (47.3%)</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>4 (7.3%)</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>BY RESOLUTION</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>BY RESOLUTION</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Informational</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -902,30 +900,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>Workaround</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Workaround</t>
+          <t>Handed Off</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Handed Off</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1073,7 +1061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1133,13 +1121,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1157,58 +1145,44 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
-        <v>8</v>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Experion/TPS, SIS, HMI</t>
+          <t>SIS/Triconex, SIS, DCS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Legacy Modernization</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Turbine, DCS, Other</t>
+          <t>Experion/TPS</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Legacy Modernization</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Experion/TPS</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -1218,7 +1192,11 @@
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> === APPLICATIONS (31 issues) ===</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1227,60 +1205,76 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> === APPLICATIONS (26 issues) ===</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Complexity</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Historian</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>RE: Marathon | St Paul | Pre-Onsite Visit: Clarified PI vs. PHD architecture and</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Impact</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>Alarm</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FW: LARINT01 - Cannot create scheduled task: Documented export cadences (EXP/TPS</t>
+          <t>Deployed patched SyncDriver DLL for Dynamo fix</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1292,17 +1286,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DCS</t>
+          <t>Alarm</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cleaned ghost references on ESVT3 for Butamer tags</t>
+          <t>Workaround for ACM PT DESC update via Station F12</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1312,14 +1306,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1329,7 +1323,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Deployed patched SyncDriver DLL for Dynamo fix</t>
+          <t>Clarified alarm governance L4/L3 for APO/ACM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1339,24 +1333,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Alarm</t>
+          <t>Integrity</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Workaround for ACM PT DESC update via Station F12</t>
+          <t>Created scheduled task to move EPKS files on LARINT01</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1366,24 +1360,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Alarm</t>
+          <t>Alarm: ACM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Clarified alarm governance L4/L3 for APO/ACM</t>
+          <t>Flagged ACM tag description mismatches, noted F12 forcing update</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1393,51 +1387,51 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Integrity</t>
+          <t>APO/HAM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Created scheduled task to move EPKS files on LARINT01</t>
+          <t>Node rename procedure missing; SR needed</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Quick</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Alarm: ACM</t>
+          <t>HMI: HMIWeb</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Flagged ACM tag description mismatches, noted F12 forcing update</t>
+          <t>Explained Flex vs server alarm discrepancies under investigation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1447,7 +1441,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1495,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1522,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1549,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1576,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -1594,17 +1588,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Alarm: DynAMo</t>
+          <t>Alarm Mgmt</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Clarified INHIBIT vs DISABLE behavior and recommended proper MOC</t>
+          <t>RE: ETD_UTIL: Provided Tag Sync add/delete lists and reasoning for In-Progress v</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1621,12 +1615,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Alarm: APO</t>
+          <t>Experion/TPS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Recommended APO 3.0 template strategy and cautioned on alternative architecture</t>
+          <t>RE: Significant issue with alarm discrepancies occurring between the servers and</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1636,7 +1630,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1642,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Alarm: ACM</t>
+          <t>Alarm: DynAMo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Diagnosed unexplained In Progress state for tag 88VA327G linked to Reconfigurati</t>
+          <t>Clarified INHIBIT vs DISABLE behavior and recommended proper MOC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Quick</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1670,44 +1664,44 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Alarm: APO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SPW Dynamo Activities: Investigated bulk UnSuppress actions and audit behavior a</t>
+          <t>Recommended APO 3.0 template strategy and cautioned on alternative architecture</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>Alarm: ACM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RE: LCN3 (ALKY) DCS Backup and Integrity Update: Coordinated D3K EC schedules an</t>
+          <t>Diagnosed unexplained In Progress state for tag 88VA327G linked to Reconfigurati</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1717,164 +1711,164 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Integrity</t>
+          <t>ACM/SCADA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Challenged reservation migration hours, documented SSR defects and training need</t>
+          <t>DB corruption and SR tracking</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Alarm: DynAMo</t>
+          <t>Alarm Mgmt</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Supported mitigation of LCN4 chattering alarms with suppression guidance</t>
+          <t>SPW Dynamo Activities: Investigated bulk UnSuppress actions and audit behavior a</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SIS/Triconex</t>
+          <t>Experion/TPS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RE: Integrity TS1131 cannot view XPS: Pursued PDF-based workaround and asked for</t>
+          <t>RE: LCN3 (ALKY) DCS Backup and Integrity Update: Coordinated D3K EC schedules an</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Integrity</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RE: ACM Secondary Parameter Update: Ran secondary parameter update to push QB de</t>
+          <t>Challenged reservation migration hours, documented SSR defects and training need</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Experion/TPS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RE: ALERT: ACM DB Replication Heartbeat not implemented or cannot be detected: C</t>
+          <t>RE: LCN4 17XA861 and 84UA822 chattering alarms: Clarified INHIBIT vs DISABLE par</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>Alarm: DynAMo</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RE: UDC Agents: Tracked redeploys across ESV/EVT fleet; highlighted remaining pr</t>
+          <t>Supported mitigation of LCN4 chattering alarms with suppression guidance</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Quick</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1886,7 +1880,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1896,66 +1890,66 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RE: Trident DI Issues - LOV: Pointed to CyberIntegrity inventory capability; not</t>
+          <t>RE: Integrity TS1131 cannot view XPS: Pursued PDF-based workaround and asked for</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Integrity</t>
+          <t>Alarm Mgmt</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Completed manual migration of &gt;1000 reservations to LARINT01, listed carve-outs</t>
+          <t>RE: ACM Secondary Parameter Update: Ran secondary parameter update to push QB de</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Alarm: DynAMo</t>
+          <t>Alarm Mgmt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Troubleshot missing DAS SUPP events since Oct 4 and documented workaround</t>
+          <t>RE: ALERT: ACM DB Replication Heartbeat not implemented or cannot be detected: C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>High</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1965,172 +1959,172 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Integrity (ALI)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>RE: Zip files transferred correctly as well: Verified transfer job execution fro</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> === DAY-TO-DAY (23 issues) ===</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Experion/TPS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>RE: DAS 91DAS005: Chased missing SUPP events on DAS triggers; captured re-init a</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Integrity</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>Completed manual migration of &gt;1000 reservations to LARINT01, listed carve-outs</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>High</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Impact</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Historian</t>
+          <t>Alarm: DynAMo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RE: Marathon | St Paul | Pre-Onsite Visit: Clarified PI vs. PHD architecture and</t>
+          <t>Troubleshot missing DAS SUPP events since Oct 4 and documented workaround</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>SIS/Triconex</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>RE: HCU TMR Alarm: Referenced prior EDM training for pulling system faults; reco</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>SIS</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Guided use of EDM for fault logs and training</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> === DAY-TO-DAY (23 issues) ===</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HMI</t>
+          <t>System</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Identified need for Vartech HMI driver CD-ROM</t>
+          <t>Summary</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Complexity</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Impact</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GE/Woodward/Bently</t>
+          <t>SIS/Triconex</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>WCC 92 Power Distribution Card Failure: Initiated follow-up on power distributio</t>
+          <t>RE: HCU TMR Alarm: Referenced prior EDM training for pulling system faults; reco</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2147,152 +2141,152 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>SIS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Confirmed KepServerEX licenses for Modbus Master</t>
+          <t>Guided use of EDM for fault logs and training</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Alarm</t>
+          <t>Turbine</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Requested failover of ESVT3 after collection stopped</t>
+          <t>Investigated DWATT TOO LOW and suggested GE ticket</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SIS</t>
+          <t>DCS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Advised on simulating Safety Manager comms</t>
+          <t>Assessed loss of steam extraction control on STG#2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HMI</t>
+          <t>Experion/TPS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Resolved by adjusting dewpoint setpoints on HMIs</t>
+          <t>FW: LARINT01 - Cannot create scheduled task: Documented export cadences (EXP/TPS</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Siemens PLC</t>
+          <t>HMI</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HMI communication troubleshooting</t>
+          <t>Identified need for Vartech HMI driver CD-ROM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Quick</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Turbine: GE Mark VIe</t>
+          <t>GE/Woodward/Bently</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Coordinated with Cyber/OT to assess GE Remote Diagnostic service option and conf</t>
+          <t>WCC 92 Power Distribution Card Failure: Initiated follow-up on power distributio</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2302,78 +2296,78 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>UPS/COM Alarm</t>
+          <t>DCS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>P1 troubleshooting for UPS COM alarm</t>
+          <t>Cleaned ghost references on ESVT3 for Butamer tags</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Reviewed Windows server build and config for pgwgen004002 to close incident</t>
+          <t>Confirmed KepServerEX licenses for Modbus Master</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Quick</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>APO/HAM</t>
+          <t>Alarm</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Node rename procedure missing; SR needed</t>
+          <t>Requested failover of ESVT3 after collection stopped</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2383,29 +2377,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HMI: HMIWeb</t>
+          <t>SIS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Explained Flex vs server alarm discrepancies under investigation</t>
+          <t>Advised on simulating Safety Manager comms</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Quick</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2417,17 +2411,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PLC (Rockwell)</t>
+          <t>HMI</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>FW: FCC System Alarm 11SPLC30AO: Analyzed polling performance vs. register gaps;</t>
+          <t>Resolved by adjusting dewpoint setpoints on HMIs</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2437,186 +2431,186 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Alarm Mgmt</t>
+          <t>Siemens PLC</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>RE: ETD_UTIL: Provided Tag Sync add/delete lists and reasoning for In-Progress v</t>
+          <t>HMI communication troubleshooting</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RE: Significant issue with alarm discrepancies occurring between the servers and</t>
+          <t>Coordinated restore path for corrupted server pgwgen004002; evaluated backup opt</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DCS: ControlEdge</t>
+          <t>Turbine: GE Mark VIe</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Provided guidance for ControlEdge PLC install media sourcing</t>
+          <t>Coordinated with Cyber/OT to assess GE Remote Diagnostic service option and conf</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SIS: Triconex</t>
+          <t>UPS/COM Alarm</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Clarified Tristation access model via L2.5 jump box for compliance</t>
+          <t>P1 troubleshooting for UPS COM alarm</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Production</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>RE: LCN4 17XA861 and 84UA822 chattering alarms: Clarified INHIBIT vs DISABLE par</t>
+          <t>Reviewed Windows server build and config for pgwgen004002 to close incident</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Integrity (ALI)</t>
+          <t>SIS: Triconex</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>RE: Zip files transferred correctly as well: Verified transfer job execution fro</t>
+          <t>Investigated FCC alarm 11SPLC30AO, checked scan rate and SCADA tag grouping</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Safety</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Experion/TPS</t>
+          <t>PLC (Rockwell)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>RE: DAS 91DAS005: Chased missing SUPP events on DAS triggers; captured re-init a</t>
+          <t>FW: FCC System Alarm 11SPLC30AO: Analyzed polling performance vs. register gaps;</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2626,187 +2620,187 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DCS: ControlEdge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Provided guidance for ControlEdge PLC install media sourcing</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> === DIAGNOSTIC (5 issues) ===</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SIS: Triconex</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Clarified Tristation access model via L2.5 jump box for compliance</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Experion/TPS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>RE: UDC Agents: Tracked redeploys across ESV/EVT fleet; highlighted remaining pr</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Impact</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Turbine</t>
+          <t>SIS/Triconex</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Investigated DWATT TOO LOW and suggested GE ticket</t>
+          <t>RE: Trident DI Issues - LOV: Pointed to CyberIntegrity inventory capability; not</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2025-10-14</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>DCS</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Assessed loss of steam extraction control on STG#2</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Coordinated restore path for corrupted server pgwgen004002; evaluated backup opt</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Compliance</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> === LEGACY MODERNIZATION (1 issues) ===</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SIS: Triconex</t>
+          <t>System</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Investigated FCC alarm 11SPLC30AO, checked scan rate and SCADA tag grouping</t>
+          <t>Summary</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Complexity</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Impact</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ACM/SCADA</t>
+          <t>Experion/TPS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>DB corruption and SR tracking</t>
+          <t>FW: Re: DSPPrime on TDC consoles: Shared dspprime/pntbld procedure to purge stal</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -2816,78 +2810,6 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> === LEGACY MODERNIZATION (1 issues) ===</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Summary</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2025-12-08</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Experion/TPS</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>FW: Re: DSPPrime on TDC consoles: Shared dspprime/pntbld procedure to purge stal</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2963,7 +2885,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Day-to-Day</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2973,12 +2895,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3010,12 +2932,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -3047,12 +2969,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -3074,7 +2996,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -3089,7 +3011,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3033,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3126,7 +3048,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3148,7 +3070,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Applications</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3158,7 +3080,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3200,7 +3122,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3154,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3259,7 +3181,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Applications</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3274,7 +3196,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3233,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3348,7 +3270,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3380,12 +3302,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3417,12 +3339,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3381,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3418,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -3528,12 +3450,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Safety</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3492,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3529,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3551,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3644,7 +3566,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
@@ -3713,12 +3635,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Production</t>
         </is>
       </c>
     </row>
@@ -3750,12 +3672,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3736,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Day-to-Day</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3829,7 +3751,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3773,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Day-to-Day</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3866,7 +3788,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3857,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3962,7 +3884,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3972,12 +3894,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Safety</t>
         </is>
       </c>
     </row>
@@ -4014,7 +3936,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -4051,7 +3973,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -4083,12 +4005,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
@@ -4120,12 +4042,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -4157,12 +4079,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4106,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Day-to-Day</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4199,7 +4121,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4143,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Day-to-Day</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4231,12 +4153,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4227,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -4347,7 +4269,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -4369,7 +4291,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4384,7 +4306,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -4416,12 +4338,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4375,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -4490,7 +4412,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -4527,12 +4449,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4513,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Day-to-Day</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4601,12 +4523,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -4643,7 +4565,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -4680,7 +4602,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -4712,12 +4634,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4676,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4698,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Day-to-Day</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4786,12 +4708,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -4813,7 +4735,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Applications</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4823,7 +4745,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4850,7 +4772,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Day-to-Day</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4860,12 +4782,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4809,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Applications</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4897,12 +4819,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Informational</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
@@ -4976,7 +4898,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
